--- a/Statystyki_2018/Template/okrp_.xlsx
+++ b/Statystyki_2018/Template/okrp_.xlsx
@@ -1,93 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev-Klon-wap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myProjects\prv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FDC8402-C845-4018-B00F-0186EFDD5610}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBABA81-431C-4328-B92B-E39C88632C0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32772" yWindow="32772" windowWidth="16380" windowHeight="8196" tabRatio="174" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="174" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" iterateDelta="1E-4" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
-  <si>
-    <t>Lp</t>
-  </si>
-  <si>
-    <t>Sędzia</t>
-  </si>
-  <si>
-    <t>Luty 2018r.</t>
-  </si>
-  <si>
-    <t>liczba wyznaczonych spraw</t>
-  </si>
-  <si>
-    <t>załatwienia wyznaczeń</t>
-  </si>
-  <si>
-    <t>Liczba załatwień w bieżącym miesiącu</t>
-  </si>
-  <si>
-    <t>odroczonych (liczba/% w stosunku do wyznaczonych)</t>
-  </si>
-  <si>
-    <t>wyrok</t>
-  </si>
-  <si>
-    <t>wyrok zaoczny</t>
-  </si>
-  <si>
-    <t>zaw.</t>
-  </si>
-  <si>
-    <t>inne post</t>
-  </si>
-  <si>
-    <t>inne</t>
-  </si>
-  <si>
-    <t>liczba</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Kordyka Krystian</t>
-  </si>
-  <si>
-    <t>Kowalewska Ula</t>
-  </si>
-  <si>
-    <t>Kowalewska Ala</t>
-  </si>
-  <si>
-    <t>Nowak Jan</t>
-  </si>
-  <si>
-    <t>6023.15</t>
-  </si>
-  <si>
-    <t>8023.15</t>
-  </si>
-  <si>
-    <t>Sokołowski Michał</t>
-  </si>
-  <si>
-    <t>trzaskowski tomasz</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Lp.</t>
   </si>
@@ -117,6 +51,9 @@
   </si>
   <si>
     <t>Uzasadnienia wygłoszone</t>
+  </si>
+  <si>
+    <t>Terminowość sporządzonych uzasadnień orzeczeń merytorycznych C i Ns</t>
   </si>
   <si>
     <t>ZAŁATWIENIA</t>
@@ -199,13 +136,16 @@
     <t>sędzia liniowy</t>
   </si>
   <si>
+    <t>Ala</t>
+  </si>
+  <si>
+    <t>Kowalewska</t>
+  </si>
+  <si>
     <t>Ula</t>
   </si>
   <si>
-    <t>Kowalewska</t>
-  </si>
-  <si>
-    <t>Ala</t>
+    <t>Kowalewska-KowalewskaKowalewska</t>
   </si>
   <si>
     <t>SSR</t>
@@ -220,6 +160,12 @@
     <t>Nowak</t>
   </si>
   <si>
+    <t>6023.15</t>
+  </si>
+  <si>
+    <t>8023.15</t>
+  </si>
+  <si>
     <t>Michał</t>
   </si>
   <si>
@@ -250,9 +196,24 @@
     <t>0</t>
   </si>
   <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
     <t>Wpływ</t>
   </si>
   <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
     <t>Załatwienia</t>
   </si>
   <si>
@@ -274,28 +235,115 @@
     <t>3</t>
   </si>
   <si>
+    <t>66</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ponad 12 miesięcy </t>
   </si>
   <si>
+    <t>67</t>
+  </si>
+  <si>
     <t>z tego</t>
   </si>
   <si>
     <t xml:space="preserve">powyżej 12 miesięcy 2 lata </t>
   </si>
   <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
     <t>ponad 2 lata</t>
   </si>
   <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
     <t>3 do 5 lat</t>
   </si>
   <si>
     <t>Ponad 5 lat</t>
+  </si>
+  <si>
+    <t>Lp</t>
+  </si>
+  <si>
+    <t>Sędzia</t>
+  </si>
+  <si>
+    <t>Luty 2018r.</t>
+  </si>
+  <si>
+    <t>liczba wyznaczonych spraw</t>
+  </si>
+  <si>
+    <t>załatwienia wyznaczeń</t>
+  </si>
+  <si>
+    <t>Liczba załatwień w bieżącym miesiącu</t>
+  </si>
+  <si>
+    <t>odroczonych (liczba/% w stosunku do wyznaczonych)</t>
+  </si>
+  <si>
+    <t>wyrok</t>
+  </si>
+  <si>
+    <t>wyrok zaoczny</t>
+  </si>
+  <si>
+    <t>zaw.</t>
+  </si>
+  <si>
+    <t>inne post</t>
+  </si>
+  <si>
+    <t>inne</t>
+  </si>
+  <si>
+    <t>liczba</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Kordyka Krystian</t>
+  </si>
+  <si>
+    <t>Kowalewska Ala</t>
+  </si>
+  <si>
+    <t>Kowalewska-KowalewskaKowalewska Ula</t>
+  </si>
+  <si>
+    <t>Nowak Jan</t>
+  </si>
+  <si>
+    <t>Sokołowski Michał</t>
+  </si>
+  <si>
+    <t>trzaskowski tomasz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="14">
     <font>
@@ -408,7 +456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -658,11 +706,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -682,13 +792,25 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="4" applyFill="1" borderId="16" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
@@ -718,32 +840,20 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="4" applyFill="1" borderId="16" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -755,6 +865,12 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="20" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1221,11 +1337,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1237,167 +1353,194 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="12"/>
+      <c r="V2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="AA2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="AB2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="AD2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="AF2" s="19"/>
+    </row>
+    <row r="3" ht="55.8">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="N3" s="17"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="17"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="12" t="s">
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="22"/>
-      <c r="U2" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="V2" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" s="15"/>
-    </row>
-    <row r="3" ht="55.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="15"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="19"/>
     </row>
     <row r="4">
       <c r="A4" s="29">
         <v>1</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F4" s="31">
         <v>0</v>
@@ -1469,6 +1612,12 @@
         <v>0</v>
       </c>
       <c r="AC4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="31">
         <v>0</v>
       </c>
     </row>
@@ -1477,16 +1626,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F5" s="31">
         <v>0</v>
@@ -1558,6 +1707,12 @@
         <v>0</v>
       </c>
       <c r="AC5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="31">
         <v>0</v>
       </c>
     </row>
@@ -1566,16 +1721,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F6" s="31">
         <v>0</v>
@@ -1647,6 +1802,12 @@
         <v>0</v>
       </c>
       <c r="AC6" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="31">
         <v>0</v>
       </c>
     </row>
@@ -1655,19 +1816,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F7" s="31">
-        <v>0</v>
+        <v>2038</v>
       </c>
       <c r="G7" s="31">
         <v>0</v>
@@ -1676,19 +1837,19 @@
         <v>0</v>
       </c>
       <c r="I7" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="31">
-        <v>1</v>
-      </c>
-      <c r="K7" s="31">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>45</v>
       </c>
       <c r="L7" s="31">
         <v>0</v>
       </c>
-      <c r="M7" s="31">
-        <v>0</v>
+      <c r="M7" s="31" t="s">
+        <v>46</v>
       </c>
       <c r="N7" s="31">
         <v>0</v>
@@ -1736,6 +1897,12 @@
         <v>0</v>
       </c>
       <c r="AC7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="31">
         <v>0</v>
       </c>
     </row>
@@ -1744,19 +1911,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F8" s="31">
-        <v>0</v>
+        <v>2056</v>
       </c>
       <c r="G8" s="31">
         <v>0</v>
@@ -1765,19 +1932,19 @@
         <v>0</v>
       </c>
       <c r="I8" s="31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" s="31">
-        <v>2</v>
-      </c>
-      <c r="K8" s="31">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>45</v>
       </c>
       <c r="L8" s="31">
         <v>0</v>
       </c>
-      <c r="M8" s="31">
-        <v>0</v>
+      <c r="M8" s="31" t="s">
+        <v>46</v>
       </c>
       <c r="N8" s="31">
         <v>0</v>
@@ -1825,6 +1992,12 @@
         <v>0</v>
       </c>
       <c r="AC8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="31">
         <v>0</v>
       </c>
     </row>
@@ -1833,16 +2006,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F9" s="31">
         <v>0</v>
@@ -1914,547 +2087,738 @@
         <v>0</v>
       </c>
       <c r="AC9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="29" t="s">
-        <v>48</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B10" s="34"/>
       <c r="C10" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="U10" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="V10" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="W10" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="X10" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y10" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z10" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA10" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB10" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC10" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD10" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE10" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="32"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="T11" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="U11" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="V11" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="W11" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="X11" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y11" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z11" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA11" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB11" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC11" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE11" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="32"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="T12" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="U12" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="V12" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="W12" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="X12" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y12" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z12" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA12" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB12" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC12" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD12" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE12" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="32"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="T13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="U13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="V13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="W13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="X13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE13" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="32"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="T14" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="U14" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="V14" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="W14" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="X14" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y14" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z14" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA14" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB14" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC14" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD14" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE14" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="32"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="T15" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="U15" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="V15" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="W15" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="X15" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y15" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z15" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA15" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB15" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC15" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD15" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE15" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="32"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="O10" s="29" t="s">
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="T16" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="U16" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="V16" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="W16" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="X16" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="P10" s="29" t="s">
+      <c r="Y16" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z16" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA16" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB16" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC16" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD16" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE16" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="32"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="D17" s="34"/>
+      <c r="E17" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="R10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="S10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="T10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="U10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="V10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="W10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="X10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z10" s="29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" s="29" t="s">
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="O11" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P11" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q11" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="R11" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="S11" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="T11" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="U11" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="V11" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="W11" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="X11" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y11" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z11" s="29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="29" t="s">
+      <c r="T17" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="U17" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="V17" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="O12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q12" s="29" t="s">
+      <c r="W17" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="R12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="S12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="T12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="U12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="V12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="W12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="X12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z12" s="29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" s="29" t="s">
+      <c r="X17" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="O13" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P13" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q13" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="R13" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="S13" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="T13" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="U13" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="V13" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="W13" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="X13" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y13" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z13" s="29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" s="29" t="s">
+      <c r="Y17" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z17" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA17" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB17" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC17" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD17" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE17" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="32"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="O14" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P14" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q14" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="R14" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="S14" s="29" t="s">
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="T18" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="U18" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="V18" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="T14" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="U14" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="V14" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="W14" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="X14" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y14" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z14" s="29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" s="29" t="s">
+      <c r="W18" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="O15" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P15" s="29" t="s">
+      <c r="X18" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="Q15" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="R15" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="S15" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="T15" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="U15" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="V15" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="W15" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="X15" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y15" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z15" s="29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" s="29" t="s">
+      <c r="Y18" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z18" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA18" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB18" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC18" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD18" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE18" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="32"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="O16" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P16" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q16" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="R16" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="S16" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="T16" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="U16" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="V16" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="W16" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="X16" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y16" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z16" s="29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" s="29" t="s">
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="T19" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="U19" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="V19" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="W19" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="X19" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y19" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z19" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA19" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB19" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC19" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD19" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE19" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="33"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="O17" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P17" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q17" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="R17" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="S17" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="T17" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="U17" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="V17" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="W17" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="X17" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y17" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z17" s="29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="O18" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P18" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q18" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="R18" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="S18" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="T18" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="U18" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="V18" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="W18" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="X18" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y18" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z18" s="29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="O19" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P19" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q19" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="R19" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="S19" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="T19" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="U19" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="V19" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="W19" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="X19" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y19" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z19" s="29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="O20" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P20" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q20" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="R20" s="29" t="s">
-        <v>74</v>
-      </c>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
       <c r="S20" s="29" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="T20" s="29" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="U20" s="29" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="V20" s="29" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="W20" s="29" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="X20" s="29" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="Y20" s="29" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="Z20" s="29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="O21" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P21" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q21" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="R21" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="S21" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="T21" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="U21" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="V21" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="W21" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="X21" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y21" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z21" s="29" t="s">
-        <v>74</v>
+        <v>56</v>
+      </c>
+      <c r="AA20" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB20" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC20" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD20" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE20" s="29" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:Z1"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="AF1:AF3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="T1:AE1"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
     <mergeCell ref="A10:B20"/>
-    <mergeCell ref="C10:N10"/>
-    <mergeCell ref="C11:N11"/>
-    <mergeCell ref="C12:N12"/>
-    <mergeCell ref="C13:N13"/>
-    <mergeCell ref="C14:N14"/>
-    <mergeCell ref="C15:N15"/>
-    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="C10:S10"/>
+    <mergeCell ref="C11:S11"/>
+    <mergeCell ref="C12:S12"/>
+    <mergeCell ref="C13:S13"/>
+    <mergeCell ref="C14:S14"/>
+    <mergeCell ref="C15:S15"/>
+    <mergeCell ref="C16:S16"/>
     <mergeCell ref="C17:D20"/>
-    <mergeCell ref="E17:N17"/>
-    <mergeCell ref="E18:N18"/>
-    <mergeCell ref="E19:N19"/>
-    <mergeCell ref="E20:N20"/>
+    <mergeCell ref="E17:S17"/>
+    <mergeCell ref="E18:S18"/>
+    <mergeCell ref="E19:S19"/>
+    <mergeCell ref="E20:S20"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -2466,8 +2830,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
@@ -2480,91 +2844,91 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.4">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="A1" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" ht="30.6" customHeight="1">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="28" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="E3" s="28"/>
-      <c r="F3" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="27"/>
+      <c r="F3" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3" s="26"/>
     </row>
     <row r="4">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="6" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
+        <v>98</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
     </row>
     <row r="5">
       <c r="A5" s="29">
         <v>1</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="C5" s="31">
         <v>0</v>
@@ -2599,7 +2963,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="C6" s="31">
         <v>0</v>
@@ -2634,7 +2998,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="C7" s="31">
         <v>0</v>
@@ -2669,7 +3033,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="C8" s="31">
         <v>0</v>
@@ -2686,14 +3050,14 @@
       <c r="G8" s="31">
         <v>0</v>
       </c>
-      <c r="H8" s="31" t="s">
-        <v>18</v>
+      <c r="H8" s="31">
+        <v>0</v>
       </c>
       <c r="I8" s="31">
         <v>0</v>
       </c>
-      <c r="J8" s="31" t="s">
-        <v>19</v>
+      <c r="J8" s="31">
+        <v>0</v>
       </c>
       <c r="K8" s="31">
         <v>0</v>
@@ -2704,7 +3068,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="C9" s="31">
         <v>0</v>
@@ -2721,14 +3085,14 @@
       <c r="G9" s="31">
         <v>0</v>
       </c>
-      <c r="H9" s="31" t="s">
-        <v>18</v>
+      <c r="H9" s="31">
+        <v>0</v>
       </c>
       <c r="I9" s="31">
         <v>0</v>
       </c>
-      <c r="J9" s="31" t="s">
-        <v>19</v>
+      <c r="J9" s="31">
+        <v>0</v>
       </c>
       <c r="K9" s="31">
         <v>0</v>
@@ -2739,7 +3103,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="C10" s="31">
         <v>0</v>
@@ -2766,6 +3130,216 @@
         <v>0</v>
       </c>
       <c r="K10" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="29">
+        <v>7</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="31">
+        <v>0</v>
+      </c>
+      <c r="D11" s="31">
+        <v>0</v>
+      </c>
+      <c r="E11" s="31">
+        <v>0</v>
+      </c>
+      <c r="F11" s="31">
+        <v>0</v>
+      </c>
+      <c r="G11" s="31">
+        <v>0</v>
+      </c>
+      <c r="H11" s="31">
+        <v>0</v>
+      </c>
+      <c r="I11" s="31">
+        <v>0</v>
+      </c>
+      <c r="J11" s="31">
+        <v>0</v>
+      </c>
+      <c r="K11" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="29">
+        <v>8</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="31">
+        <v>0</v>
+      </c>
+      <c r="D12" s="31">
+        <v>0</v>
+      </c>
+      <c r="E12" s="31">
+        <v>0</v>
+      </c>
+      <c r="F12" s="31">
+        <v>0</v>
+      </c>
+      <c r="G12" s="31">
+        <v>0</v>
+      </c>
+      <c r="H12" s="31">
+        <v>0</v>
+      </c>
+      <c r="I12" s="31">
+        <v>0</v>
+      </c>
+      <c r="J12" s="31">
+        <v>0</v>
+      </c>
+      <c r="K12" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="29">
+        <v>9</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="31">
+        <v>0</v>
+      </c>
+      <c r="D13" s="31">
+        <v>0</v>
+      </c>
+      <c r="E13" s="31">
+        <v>0</v>
+      </c>
+      <c r="F13" s="31">
+        <v>0</v>
+      </c>
+      <c r="G13" s="31">
+        <v>0</v>
+      </c>
+      <c r="H13" s="31">
+        <v>0</v>
+      </c>
+      <c r="I13" s="31">
+        <v>0</v>
+      </c>
+      <c r="J13" s="31">
+        <v>0</v>
+      </c>
+      <c r="K13" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="29">
+        <v>10</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="31">
+        <v>0</v>
+      </c>
+      <c r="D14" s="31">
+        <v>0</v>
+      </c>
+      <c r="E14" s="31">
+        <v>0</v>
+      </c>
+      <c r="F14" s="31">
+        <v>0</v>
+      </c>
+      <c r="G14" s="31">
+        <v>0</v>
+      </c>
+      <c r="H14" s="31">
+        <v>0</v>
+      </c>
+      <c r="I14" s="31">
+        <v>0</v>
+      </c>
+      <c r="J14" s="31">
+        <v>0</v>
+      </c>
+      <c r="K14" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="29">
+        <v>11</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="31">
+        <v>0</v>
+      </c>
+      <c r="D15" s="31">
+        <v>0</v>
+      </c>
+      <c r="E15" s="31">
+        <v>0</v>
+      </c>
+      <c r="F15" s="31">
+        <v>0</v>
+      </c>
+      <c r="G15" s="31">
+        <v>0</v>
+      </c>
+      <c r="H15" s="31">
+        <v>0</v>
+      </c>
+      <c r="I15" s="31">
+        <v>0</v>
+      </c>
+      <c r="J15" s="31">
+        <v>0</v>
+      </c>
+      <c r="K15" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="29">
+        <v>12</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="31">
+        <v>0</v>
+      </c>
+      <c r="D16" s="31">
+        <v>0</v>
+      </c>
+      <c r="E16" s="31">
+        <v>0</v>
+      </c>
+      <c r="F16" s="31">
+        <v>0</v>
+      </c>
+      <c r="G16" s="31">
+        <v>0</v>
+      </c>
+      <c r="H16" s="31">
+        <v>0</v>
+      </c>
+      <c r="I16" s="31">
+        <v>0</v>
+      </c>
+      <c r="J16" s="31">
+        <v>0</v>
+      </c>
+      <c r="K16" s="31">
         <v>0</v>
       </c>
     </row>
